--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87982053014031</v>
+        <v>1.921801</v>
       </c>
       <c r="N2">
-        <v>1.87982053014031</v>
+        <v>3.843602</v>
       </c>
       <c r="O2">
-        <v>0.3139184641402641</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P2">
-        <v>0.3139184641402641</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q2">
-        <v>6.311809873468961</v>
+        <v>8.650566327081</v>
       </c>
       <c r="R2">
-        <v>6.311809873468961</v>
+        <v>34.602265308324</v>
       </c>
       <c r="S2">
-        <v>0.07950349491773223</v>
+        <v>0.07992441694107567</v>
       </c>
       <c r="T2">
-        <v>0.07950349491773223</v>
+        <v>0.05210534453722104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140412666828495</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N3">
-        <v>0.140412666828495</v>
+        <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02344805156125716</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P3">
-        <v>0.02344805156125716</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q3">
-        <v>0.4714588667579091</v>
+        <v>0.685633621493</v>
       </c>
       <c r="R3">
-        <v>0.4714588667579091</v>
+        <v>4.113801728958</v>
       </c>
       <c r="S3">
-        <v>0.005938491236049672</v>
+        <v>0.006334714440773177</v>
       </c>
       <c r="T3">
-        <v>0.005938491236049672</v>
+        <v>0.006194711662233497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.983069956635791</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N4">
-        <v>0.983069956635791</v>
+        <v>1.232786</v>
       </c>
       <c r="O4">
-        <v>0.164166635049203</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P4">
-        <v>0.164166635049203</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q4">
-        <v>3.300820774705207</v>
+        <v>1.849705399622</v>
       </c>
       <c r="R4">
-        <v>3.300820774705207</v>
+        <v>11.098232397732</v>
       </c>
       <c r="S4">
-        <v>0.04157710592475292</v>
+        <v>0.0170898204796995</v>
       </c>
       <c r="T4">
-        <v>0.04157710592475292</v>
+        <v>0.01671212036799403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1836409249962</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N5">
-        <v>1.1836409249962</v>
+        <v>2.993645</v>
       </c>
       <c r="O5">
-        <v>0.1976607528808269</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P5">
-        <v>0.1976607528808269</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q5">
-        <v>3.974271137721494</v>
+        <v>4.491745786415001</v>
       </c>
       <c r="R5">
-        <v>3.974271137721494</v>
+        <v>26.95047471849</v>
       </c>
       <c r="S5">
-        <v>0.05005988005558774</v>
+        <v>0.04150019194730472</v>
       </c>
       <c r="T5">
-        <v>0.05005988005558774</v>
+        <v>0.04058300108781531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H6">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I6">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J6">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80130046537217</v>
+        <v>1.197361</v>
       </c>
       <c r="N6">
-        <v>1.80130046537217</v>
+        <v>3.592083</v>
       </c>
       <c r="O6">
-        <v>0.3008060963684488</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P6">
-        <v>0.3008060963684488</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q6">
-        <v>6.048165705250427</v>
+        <v>5.389658319441001</v>
       </c>
       <c r="R6">
-        <v>6.048165705250427</v>
+        <v>32.337949916646</v>
       </c>
       <c r="S6">
-        <v>0.0761826355749694</v>
+        <v>0.0497961962726543</v>
       </c>
       <c r="T6">
-        <v>0.0761826355749694</v>
+        <v>0.0486956563976433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.88778707649194</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H7">
-        <v>1.88778707649194</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I7">
-        <v>0.1423917567179602</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J7">
-        <v>0.1423917567179602</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87982053014031</v>
+        <v>1.8056465</v>
       </c>
       <c r="N7">
-        <v>1.87982053014031</v>
+        <v>3.611293</v>
       </c>
       <c r="O7">
-        <v>0.3139184641402641</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P7">
-        <v>0.3139184641402641</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q7">
-        <v>3.548700902923104</v>
+        <v>8.1277222831665</v>
       </c>
       <c r="R7">
-        <v>3.548700902923104</v>
+        <v>32.510889132666</v>
       </c>
       <c r="S7">
-        <v>0.04469940157513622</v>
+        <v>0.07509374993258615</v>
       </c>
       <c r="T7">
-        <v>0.04469940157513622</v>
+        <v>0.04895607453369381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.140412666828495</v>
+        <v>1.921801</v>
       </c>
       <c r="N8">
-        <v>0.140412666828495</v>
+        <v>3.843602</v>
       </c>
       <c r="O8">
-        <v>0.02344805156125716</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P8">
-        <v>0.02344805156125716</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q8">
-        <v>0.2650692178146014</v>
+        <v>4.012155478506</v>
       </c>
       <c r="R8">
-        <v>0.2650692178146014</v>
+        <v>24.072932871036</v>
       </c>
       <c r="S8">
-        <v>0.003338809253420717</v>
+        <v>0.03706915537918768</v>
       </c>
       <c r="T8">
-        <v>0.003338809253420717</v>
+        <v>0.0362498943375531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H9">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J9">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.983069956635791</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N9">
-        <v>0.983069956635791</v>
+        <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.164166635049203</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P9">
-        <v>0.164166635049203</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q9">
-        <v>1.855826759424538</v>
+        <v>0.317998682018</v>
       </c>
       <c r="R9">
-        <v>1.855826759424538</v>
+        <v>2.861988138162</v>
       </c>
       <c r="S9">
-        <v>0.02337597555913228</v>
+        <v>0.002938057265540367</v>
       </c>
       <c r="T9">
-        <v>0.02337597555913228</v>
+        <v>0.004309685411391172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H10">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J10">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.1836409249962</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N10">
-        <v>1.1836409249962</v>
+        <v>1.232786</v>
       </c>
       <c r="O10">
-        <v>0.1976607528808269</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P10">
-        <v>0.1976607528808269</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q10">
-        <v>2.234462041414792</v>
+        <v>0.8578982429720001</v>
       </c>
       <c r="R10">
-        <v>2.234462041414792</v>
+        <v>7.721084186748</v>
       </c>
       <c r="S10">
-        <v>0.02814526183689555</v>
+        <v>0.007926303813157081</v>
       </c>
       <c r="T10">
-        <v>0.02814526183689555</v>
+        <v>0.01162668825773708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H11">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J11">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.80130046537217</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N11">
-        <v>1.80130046537217</v>
+        <v>2.993645</v>
       </c>
       <c r="O11">
-        <v>0.3008060963684488</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P11">
-        <v>0.3008060963684488</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q11">
-        <v>3.4004717394085</v>
+        <v>2.08328354279</v>
       </c>
       <c r="R11">
-        <v>3.4004717394085</v>
+        <v>18.74955188511</v>
       </c>
       <c r="S11">
-        <v>0.04283230849337546</v>
+        <v>0.01924789848257413</v>
       </c>
       <c r="T11">
-        <v>0.04283230849337546</v>
+        <v>0.02823375441425625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.7871415384493</v>
+        <v>2.087706</v>
       </c>
       <c r="H12">
-        <v>4.7871415384493</v>
+        <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.3610838858924802</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J12">
-        <v>0.3610838858924802</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.87982053014031</v>
+        <v>1.197361</v>
       </c>
       <c r="N12">
-        <v>1.87982053014031</v>
+        <v>3.592083</v>
       </c>
       <c r="O12">
-        <v>0.3139184641402641</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P12">
-        <v>0.3139184641402641</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q12">
-        <v>8.998966944664463</v>
+        <v>2.499737743866</v>
       </c>
       <c r="R12">
-        <v>8.998966944664463</v>
+        <v>22.497639694794</v>
       </c>
       <c r="S12">
-        <v>0.1133508988851658</v>
+        <v>0.02309560716951419</v>
       </c>
       <c r="T12">
-        <v>0.1133508988851658</v>
+        <v>0.03387776080918908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.7871415384493</v>
+        <v>2.087706</v>
       </c>
       <c r="H13">
-        <v>4.7871415384493</v>
+        <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.3610838858924802</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J13">
-        <v>0.3610838858924802</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.140412666828495</v>
+        <v>1.8056465</v>
       </c>
       <c r="N13">
-        <v>0.140412666828495</v>
+        <v>3.611293</v>
       </c>
       <c r="O13">
-        <v>0.02344805156125716</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P13">
-        <v>0.02344805156125716</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q13">
-        <v>0.6721753098991305</v>
+        <v>3.769659031929</v>
       </c>
       <c r="R13">
-        <v>0.6721753098991305</v>
+        <v>22.617954191574</v>
       </c>
       <c r="S13">
-        <v>0.008466713574345974</v>
+        <v>0.03482867927968943</v>
       </c>
       <c r="T13">
-        <v>0.008466713574345974</v>
+        <v>0.03405893473672487</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J14">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.983069956635791</v>
+        <v>1.921801</v>
       </c>
       <c r="N14">
-        <v>0.983069956635791</v>
+        <v>3.843602</v>
       </c>
       <c r="O14">
-        <v>0.164166635049203</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P14">
-        <v>0.164166635049203</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q14">
-        <v>4.706095024612748</v>
+        <v>0.02756567294366667</v>
       </c>
       <c r="R14">
-        <v>4.706095024612748</v>
+        <v>0.165394037662</v>
       </c>
       <c r="S14">
-        <v>0.05927792651745887</v>
+        <v>0.0002546850985598267</v>
       </c>
       <c r="T14">
-        <v>0.05927792651745887</v>
+        <v>0.0002490563331617331</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J15">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1836409249962</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N15">
-        <v>1.1836409249962</v>
+        <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.1976607528808269</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P15">
-        <v>0.1976607528808269</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q15">
-        <v>5.666256638657862</v>
+        <v>0.002184822525444444</v>
       </c>
       <c r="R15">
-        <v>5.666256638657862</v>
+        <v>0.019663402729</v>
       </c>
       <c r="S15">
-        <v>0.07137211273864222</v>
+        <v>2.018603867809412E-05</v>
       </c>
       <c r="T15">
-        <v>0.07137211273864222</v>
+        <v>2.960986411841091E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J16">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.80130046537217</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N16">
-        <v>1.80130046537217</v>
+        <v>1.232786</v>
       </c>
       <c r="O16">
-        <v>0.3008060963684488</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P16">
-        <v>0.3008060963684488</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q16">
-        <v>8.623080281011172</v>
+        <v>0.005894223818444444</v>
       </c>
       <c r="R16">
-        <v>8.623080281011172</v>
+        <v>0.053048014366</v>
       </c>
       <c r="S16">
-        <v>0.1086162341768674</v>
+        <v>5.445798392812691E-05</v>
       </c>
       <c r="T16">
-        <v>0.1086162341768674</v>
+        <v>7.988162164894292E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.22510435732799</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>3.22510435732799</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.2432627496804676</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J17">
-        <v>0.2432627496804676</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.87982053014031</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N17">
-        <v>1.87982053014031</v>
+        <v>2.993645</v>
       </c>
       <c r="O17">
-        <v>0.3139184641402641</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P17">
-        <v>0.3139184641402641</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q17">
-        <v>6.062617382750125</v>
+        <v>0.01431328199944444</v>
       </c>
       <c r="R17">
-        <v>6.062617382750125</v>
+        <v>0.128819537995</v>
       </c>
       <c r="S17">
-        <v>0.07636466876222993</v>
+        <v>0.0001322434480084276</v>
       </c>
       <c r="T17">
-        <v>0.07636466876222993</v>
+        <v>0.0001939811266848015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.22510435732799</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>3.22510435732799</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.2432627496804676</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J18">
-        <v>0.2432627496804676</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.140412666828495</v>
+        <v>1.197361</v>
       </c>
       <c r="N18">
-        <v>0.140412666828495</v>
+        <v>3.592083</v>
       </c>
       <c r="O18">
-        <v>0.02344805156125716</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P18">
-        <v>0.02344805156125716</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q18">
-        <v>0.4528455036126225</v>
+        <v>0.01717454706366666</v>
       </c>
       <c r="R18">
-        <v>0.4528455036126225</v>
+        <v>0.154570923573</v>
       </c>
       <c r="S18">
-        <v>0.005704037497440799</v>
+        <v>0.000158679282764809</v>
       </c>
       <c r="T18">
-        <v>0.005704037497440799</v>
+        <v>0.0002327584959089411</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.22510435732799</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>3.22510435732799</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.2432627496804676</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J19">
-        <v>0.2432627496804676</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.983069956635791</v>
+        <v>1.8056465</v>
       </c>
       <c r="N19">
-        <v>0.983069956635791</v>
+        <v>3.611293</v>
       </c>
       <c r="O19">
-        <v>0.164166635049203</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P19">
-        <v>0.164166635049203</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q19">
-        <v>3.170503200704327</v>
+        <v>0.02589959151383333</v>
       </c>
       <c r="R19">
-        <v>3.170503200704327</v>
+        <v>0.155397549083</v>
       </c>
       <c r="S19">
-        <v>0.03993562704785895</v>
+        <v>0.0002392918188806782</v>
       </c>
       <c r="T19">
-        <v>0.03993562704785895</v>
+        <v>0.0002340032585456649</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H20">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I20">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J20">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1836409249962</v>
+        <v>1.921801</v>
       </c>
       <c r="N20">
-        <v>1.1836409249962</v>
+        <v>3.843602</v>
       </c>
       <c r="O20">
-        <v>0.1976607528808269</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P20">
-        <v>0.1976607528808269</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q20">
-        <v>3.817365504716977</v>
+        <v>0.7658056684833333</v>
       </c>
       <c r="R20">
-        <v>3.817365504716977</v>
+        <v>4.594834010900001</v>
       </c>
       <c r="S20">
-        <v>0.04808349824970135</v>
+        <v>0.007075440986111058</v>
       </c>
       <c r="T20">
-        <v>0.04808349824970135</v>
+        <v>0.006919067497343633</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.19545</v>
+      </c>
+      <c r="I21">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J21">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.456959</v>
+      </c>
+      <c r="O21">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P21">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q21">
+        <v>0.06069684850555555</v>
+      </c>
+      <c r="R21">
+        <v>0.5462716365500001</v>
+      </c>
+      <c r="S21">
+        <v>0.0005607910561624787</v>
+      </c>
+      <c r="T21">
+        <v>0.0008225956185158218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.19545</v>
+      </c>
+      <c r="I22">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J22">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.232786</v>
+      </c>
+      <c r="O22">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P22">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q22">
+        <v>0.1637482248555556</v>
+      </c>
+      <c r="R22">
+        <v>1.4737340237</v>
+      </c>
+      <c r="S22">
+        <v>0.001512904577789949</v>
+      </c>
+      <c r="T22">
+        <v>0.002219202077577301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.19545</v>
+      </c>
+      <c r="I23">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J23">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.993645</v>
+      </c>
+      <c r="O23">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P23">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q23">
+        <v>0.3976392128055556</v>
+      </c>
+      <c r="R23">
+        <v>3.57875291525</v>
+      </c>
+      <c r="S23">
+        <v>0.003673873019954795</v>
+      </c>
+      <c r="T23">
+        <v>0.005389015776889824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.19545</v>
+      </c>
+      <c r="I24">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J24">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.197361</v>
+      </c>
+      <c r="N24">
+        <v>3.592083</v>
+      </c>
+      <c r="O24">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P24">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q24">
+        <v>0.4771284024833333</v>
+      </c>
+      <c r="R24">
+        <v>4.29415562235</v>
+      </c>
+      <c r="S24">
+        <v>0.004408290501758986</v>
+      </c>
+      <c r="T24">
+        <v>0.006466295088060786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.19545</v>
+      </c>
+      <c r="I25">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J25">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.8056465</v>
+      </c>
+      <c r="N25">
+        <v>3.611293</v>
+      </c>
+      <c r="O25">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P25">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q25">
+        <v>0.7195200361416667</v>
+      </c>
+      <c r="R25">
+        <v>4.31712021685</v>
+      </c>
+      <c r="S25">
+        <v>0.006647798212472561</v>
+      </c>
+      <c r="T25">
+        <v>0.006500876006330671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H26">
+        <v>19.023016</v>
+      </c>
+      <c r="I26">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J26">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.921801</v>
+      </c>
+      <c r="N26">
+        <v>3.843602</v>
+      </c>
+      <c r="O26">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P26">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q26">
+        <v>12.18615039060533</v>
+      </c>
+      <c r="R26">
+        <v>73.11690234363199</v>
+      </c>
+      <c r="S26">
+        <v>0.1125904279441603</v>
+      </c>
+      <c r="T26">
+        <v>0.1101020801430824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H27">
+        <v>19.023016</v>
+      </c>
+      <c r="I27">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J27">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.456959</v>
+      </c>
+      <c r="O27">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P27">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q27">
+        <v>0.9658598187048887</v>
+      </c>
+      <c r="R27">
+        <v>8.692738368343999</v>
+      </c>
+      <c r="S27">
+        <v>0.008923783708256913</v>
+      </c>
+      <c r="T27">
+        <v>0.01308984032168336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H28">
+        <v>19.023016</v>
+      </c>
+      <c r="I28">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J28">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.232786</v>
+      </c>
+      <c r="O28">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P28">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q28">
+        <v>2.605700866952889</v>
+      </c>
+      <c r="R28">
+        <v>23.451307802576</v>
+      </c>
+      <c r="S28">
+        <v>0.02407462293677815</v>
+      </c>
+      <c r="T28">
+        <v>0.03531382879165688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H21">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I21">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J21">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="N21">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="O21">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="P21">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="Q21">
-        <v>5.809381979728721</v>
-      </c>
-      <c r="R21">
-        <v>5.809381979728721</v>
-      </c>
-      <c r="S21">
-        <v>0.07317491812323659</v>
-      </c>
-      <c r="T21">
-        <v>0.07317491812323659</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H29">
+        <v>19.023016</v>
+      </c>
+      <c r="I29">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J29">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.993645</v>
+      </c>
+      <c r="O29">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P29">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q29">
+        <v>6.327572970368888</v>
+      </c>
+      <c r="R29">
+        <v>56.94815673331999</v>
+      </c>
+      <c r="S29">
+        <v>0.05846178864910149</v>
+      </c>
+      <c r="T29">
+        <v>0.08575459730480366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H30">
+        <v>19.023016</v>
+      </c>
+      <c r="I30">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J30">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.197361</v>
+      </c>
+      <c r="N30">
+        <v>3.592083</v>
+      </c>
+      <c r="O30">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P30">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q30">
+        <v>7.592472486925332</v>
+      </c>
+      <c r="R30">
+        <v>68.33225238232799</v>
+      </c>
+      <c r="S30">
+        <v>0.07014846354729115</v>
+      </c>
+      <c r="T30">
+        <v>0.1028971809117083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H31">
+        <v>19.023016</v>
+      </c>
+      <c r="I31">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J31">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.8056465</v>
+      </c>
+      <c r="N31">
+        <v>3.611293</v>
+      </c>
+      <c r="O31">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P31">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q31">
+        <v>11.44961408661466</v>
+      </c>
+      <c r="R31">
+        <v>68.697684519688</v>
+      </c>
+      <c r="S31">
+        <v>0.1057854128241557</v>
+      </c>
+      <c r="T31">
+        <v>0.1034474618615956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.3447175</v>
+      </c>
+      <c r="H32">
+        <v>6.689435</v>
+      </c>
+      <c r="I32">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J32">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.921801</v>
+      </c>
+      <c r="N32">
+        <v>3.843602</v>
+      </c>
+      <c r="O32">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P32">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q32">
+        <v>6.427881436217499</v>
+      </c>
+      <c r="R32">
+        <v>25.71152574486999</v>
+      </c>
+      <c r="S32">
+        <v>0.05938855983887969</v>
+      </c>
+      <c r="T32">
+        <v>0.03871734684352578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.3447175</v>
+      </c>
+      <c r="H33">
+        <v>6.689435</v>
+      </c>
+      <c r="I33">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J33">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.456959</v>
+      </c>
+      <c r="O33">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P33">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q33">
+        <v>0.5094662546941666</v>
+      </c>
+      <c r="R33">
+        <v>3.056797528165</v>
+      </c>
+      <c r="S33">
+        <v>0.004707066776670187</v>
+      </c>
+      <c r="T33">
+        <v>0.004603036447652671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.3447175</v>
+      </c>
+      <c r="H34">
+        <v>6.689435</v>
+      </c>
+      <c r="I34">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J34">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.232786</v>
+      </c>
+      <c r="O34">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P34">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q34">
+        <v>1.374440302651667</v>
+      </c>
+      <c r="R34">
+        <v>8.246641815909999</v>
+      </c>
+      <c r="S34">
+        <v>0.01269874545275207</v>
+      </c>
+      <c r="T34">
+        <v>0.01241809197358175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.3447175</v>
+      </c>
+      <c r="H35">
+        <v>6.689435</v>
+      </c>
+      <c r="I35">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J35">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N35">
+        <v>2.993645</v>
+      </c>
+      <c r="O35">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P35">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q35">
+        <v>3.337632273429167</v>
+      </c>
+      <c r="R35">
+        <v>20.025793640575</v>
+      </c>
+      <c r="S35">
+        <v>0.03083709243202305</v>
+      </c>
+      <c r="T35">
+        <v>0.03015556548034545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.3447175</v>
+      </c>
+      <c r="H36">
+        <v>6.689435</v>
+      </c>
+      <c r="I36">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J36">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.197361</v>
+      </c>
+      <c r="N36">
+        <v>3.592083</v>
+      </c>
+      <c r="O36">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P36">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q36">
+        <v>4.0048342905175</v>
+      </c>
+      <c r="R36">
+        <v>24.029005743105</v>
+      </c>
+      <c r="S36">
+        <v>0.03700151337065639</v>
+      </c>
+      <c r="T36">
+        <v>0.03618374727709389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.3447175</v>
+      </c>
+      <c r="H37">
+        <v>6.689435</v>
+      </c>
+      <c r="I37">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J37">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.8056465</v>
+      </c>
+      <c r="N37">
+        <v>3.611293</v>
+      </c>
+      <c r="O37">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P37">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q37">
+        <v>6.03937744736375</v>
+      </c>
+      <c r="R37">
+        <v>24.157509789455</v>
+      </c>
+      <c r="S37">
+        <v>0.05579908909044885</v>
+      </c>
+      <c r="T37">
+        <v>0.03637725332503125</v>
       </c>
     </row>
   </sheetData>
